--- a/biology/Biologie cellulaire et moléculaire/Jonction_intercellulaire/Jonction_intercellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jonction_intercellulaire/Jonction_intercellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dans les tissus animaux, les cellules voisines sont reliées entre elles par diverses structures qui assurent une cohérence de l'ensemble du tissu. Ces structures qui mettent en jeu deux cellules ou plus sont regroupées sous le terme générique de jonctions intercellulaires. Elles peuvent être ponctuelles (dispositif maculaire), ou former une ceinture autour de la cellule (dispositif zonulaire). Tout ce qui n'est pas bande ou cercle est le complexe FASCIA.
 Dans l'organisme, on trouve les types de jonctions suivantes :
